--- a/data/output/set50/high_noisy_50/results/psnr.xlsx
+++ b/data/output/set50/high_noisy_50/results/psnr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\high_noisy_50\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\high_noisy_50\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB28CC0E-CAA7-4A78-8F2C-50A85A62A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A553DA32-CA6F-45E5-B043-7DE4C0863342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>psnr_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>psnr_bm3d</t>
+  </si>
+  <si>
+    <t>psnr_dual</t>
   </si>
 </sst>
 </file>
@@ -414,576 +417,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15.25971989</v>
+      </c>
+      <c r="B2" s="2">
         <v>25.23098912</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>25.681994400000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>27.8601457</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15.124113680000001</v>
+      </c>
+      <c r="B3" s="2">
         <v>24.357873040000001</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>24.282684549999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>26.750731500000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14.95369393</v>
+      </c>
+      <c r="B4" s="2">
         <v>25.169940799999999</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>24.28686192</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>26.895260310000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15.36763148</v>
+      </c>
+      <c r="B5" s="2">
         <v>24.379403849999999</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>24.591136299999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>26.465470270000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14.955490060000001</v>
+      </c>
+      <c r="B6" s="2">
         <v>25.17375294</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>24.42736743</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>26.778631709999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>14.94169123</v>
+      </c>
+      <c r="B7" s="2">
         <v>25.353712489999999</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>24.328733849999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>27.027832400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15.266234689999999</v>
+      </c>
+      <c r="B8" s="2">
         <v>22.72431933</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>22.899964050000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>24.692299640000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15.89359572</v>
+      </c>
+      <c r="B9" s="2">
         <v>21.607662959999999</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>22.13211562</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>23.666653570000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>15.813260359999999</v>
+      </c>
+      <c r="B10" s="2">
         <v>24.482661910000001</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>23.76733046</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>25.448750159999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15.02406029</v>
+      </c>
+      <c r="B11" s="2">
         <v>23.139610640000001</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>22.89636119</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>24.79146373</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15.43720345</v>
+      </c>
+      <c r="B12" s="2">
         <v>25.030124839999999</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>25.369749899999999</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>27.860898689999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16.450059499999998</v>
+      </c>
+      <c r="B13" s="2">
         <v>21.329548880000001</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>22.08702371</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>23.25828001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15.517656880000001</v>
+      </c>
+      <c r="B14" s="2">
         <v>22.867989680000001</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>22.772520920000002</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>24.215113680000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15.15375306</v>
+      </c>
+      <c r="B15" s="2">
         <v>24.080074799999998</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>23.938608120000001</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>26.328471700000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15.0268073</v>
+      </c>
+      <c r="B16" s="2">
         <v>20.370359319999999</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>20.193821490000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>21.174124920000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15.15163474</v>
+      </c>
+      <c r="B17" s="2">
         <v>21.902551410000001</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>21.448240380000001</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>23.01082967</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15.40609371</v>
+      </c>
+      <c r="B18" s="2">
         <v>21.18975322</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>21.018486939999999</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>22.014992119999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15.74169332</v>
+      </c>
+      <c r="B19" s="2">
         <v>20.66387044</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>21.262318130000001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>22.413291359999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15.896421439999999</v>
+      </c>
+      <c r="B20" s="2">
         <v>20.487701650000002</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>20.80796411</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>21.581413879999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15.735057299999999</v>
+      </c>
+      <c r="B21" s="2">
         <v>22.689086</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>22.922463629999999</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>24.561286500000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15.172166880000001</v>
+      </c>
+      <c r="B22" s="2">
         <v>22.868318760000001</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>22.380198539999999</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>24.000156109999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15.04800902</v>
+      </c>
+      <c r="B23" s="2">
         <v>24.79514374</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>24.689871159999999</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>26.72251846</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14.840811860000001</v>
+      </c>
+      <c r="B24" s="2">
         <v>23.177504209999999</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>22.852119999999999</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>24.138624719999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15.18415092</v>
+      </c>
+      <c r="B25" s="2">
         <v>27.289946619999998</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>27.532824940000001</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>30.057303650000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14.99710675</v>
+      </c>
+      <c r="B26" s="2">
         <v>25.15736253</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>25.45065679</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>27.396528350000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15.012277859999999</v>
+      </c>
+      <c r="B27" s="2">
         <v>27.239029080000002</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>27.183756670000001</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>29.01096407</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14.89811287</v>
+      </c>
+      <c r="B28" s="2">
         <v>26.423359739999999</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>25.83466567</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>27.96603361</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15.4138761</v>
+      </c>
+      <c r="B29" s="2">
         <v>26.185890969999999</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>26.576496580000001</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>28.54489753</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14.96797112</v>
+      </c>
+      <c r="B30" s="2">
         <v>25.712051679999998</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>25.761789369999999</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>27.540246029999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>15.425623330000001</v>
+      </c>
+      <c r="B31" s="2">
         <v>21.22933068</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>21.168833079999999</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>22.53292377</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15.42715445</v>
+      </c>
+      <c r="B32" s="2">
         <v>23.311744090000001</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>22.769555740000001</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>24.77073845</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15.54474746</v>
+      </c>
+      <c r="B33" s="2">
         <v>19.874178919999999</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>20.039568890000002</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>20.565977090000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15.58986575</v>
+      </c>
+      <c r="B34" s="2">
         <v>21.8204575</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>21.722751079999998</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>23.096501109999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>15.17279407</v>
+      </c>
+      <c r="B35" s="2">
         <v>23.998543290000001</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>23.32842857</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>25.46462871</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15.28555716</v>
+      </c>
+      <c r="B36" s="2">
         <v>22.99520304</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>22.412074400000002</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>24.53146095</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14.849245140000001</v>
+      </c>
+      <c r="B37" s="2">
         <v>24.917332089999999</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>24.709160220000001</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>27.091086539999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>15.52903416</v>
+      </c>
+      <c r="B38" s="2">
         <v>22.26300634</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C38" s="2">
         <v>22.28286387</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>24.476160629999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>14.950693469999999</v>
+      </c>
+      <c r="B39" s="2">
         <v>24.736532889999999</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>23.321609580000001</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>25.613469810000002</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>14.834578560000001</v>
+      </c>
+      <c r="B40" s="2">
         <v>25.06000534</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C40" s="2">
         <v>24.77163792</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>27.159831149999999</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>15.029082470000001</v>
+      </c>
+      <c r="B41" s="2">
         <v>27.334300800000001</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C41" s="2">
         <v>27.278793490000002</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>28.937741030000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14.600522420000001</v>
+      </c>
+      <c r="B42" s="2">
         <v>27.46044483</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>26.847013400000002</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>29.042689920000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14.879500050000001</v>
+      </c>
+      <c r="B43" s="2">
         <v>23.905514109999999</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>23.530934899999998</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>26.207271850000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>14.875333830000001</v>
+      </c>
+      <c r="B44" s="2">
         <v>23.7934105</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C44" s="2">
         <v>23.529109309999999</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" s="2">
         <v>25.694595629999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15.32181636</v>
+      </c>
+      <c r="B45" s="2">
         <v>24.17163004</v>
       </c>
-      <c r="B45" s="2">
+      <c r="C45" s="2">
         <v>24.07459557</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>26.357831520000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>14.9995428</v>
+      </c>
+      <c r="B46" s="2">
         <v>17.999108570000001</v>
       </c>
-      <c r="B46" s="2">
+      <c r="C46" s="2">
         <v>18.385202079999999</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" s="2">
         <v>18.388087949999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>15.304594379999999</v>
+      </c>
+      <c r="B47" s="2">
         <v>24.003178859999998</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C47" s="2">
         <v>23.88448503</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>26.05216429</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>15.08257203</v>
+      </c>
+      <c r="B48" s="2">
         <v>22.034272789999999</v>
       </c>
-      <c r="B48" s="2">
+      <c r="C48" s="2">
         <v>21.544400769999999</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>23.421125379999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14.79851423</v>
+      </c>
+      <c r="B49" s="2">
         <v>21.360584299999999</v>
       </c>
-      <c r="B49" s="2">
+      <c r="C49" s="2">
         <v>20.914817110000001</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" s="2">
         <v>22.35293733</v>
       </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>15.012342090000001</v>
+      </c>
+      <c r="B50" s="2">
         <v>24.622944919999998</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C50" s="2">
         <v>24.72255183</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D50" s="2">
         <v>27.142069750000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15.45876118</v>
+      </c>
+      <c r="B51" s="2">
         <v>20.047150070000001</v>
       </c>
-      <c r="B51" s="2">
+      <c r="C51" s="2">
         <v>19.46700002</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D51" s="2">
         <v>21.109223289999999</v>
       </c>
     </row>
